--- a/_build/html/_static/LP_rewards.xlsx
+++ b/_build/html/_static/LP_rewards.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="38">
   <si>
     <t xml:space="preserve">* Only Update cells highlighted in yellow</t>
   </si>
@@ -53,12 +53,18 @@
     <t xml:space="preserve">source: https://markets.anyswap.exchange/#/</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Trading Rewards</t>
+    <t xml:space="preserve">Total Volume Rewards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Split between FSN and the other trading pair</t>
   </si>
   <si>
     <t xml:space="preserve">Total Rewards</t>
   </si>
   <si>
+    <t xml:space="preserve">After converting the LP rewards to FSN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Daily</t>
   </si>
   <si>
@@ -93,6 +99,9 @@
   </si>
   <si>
     <t xml:space="preserve">Your Total Rewards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total of LP rewards and volume based rewards converted to FSN</t>
   </si>
   <si>
     <t xml:space="preserve">Your Total Rewards USD</t>
@@ -300,10 +309,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I39" activeCellId="0" sqref="I39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M42" activeCellId="0" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -371,7 +380,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="n">
-        <f aca="false">16500*B7*B4/(2*B4+B20+B34)</f>
+        <f aca="false">16500*B7*B4/(2*B4+B20+B36)</f>
         <v>14784.7767211459</v>
       </c>
       <c r="C8" s="0" t="s">
@@ -397,46 +406,52 @@
         <v>10</v>
       </c>
       <c r="B10" s="5" t="n">
-        <f aca="false">16500*B9/(B9+B25+B40)</f>
-        <v>9309.78260869565</v>
+        <f aca="false">0.003*B9*1000000</f>
+        <v>17130</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="0" t="n">
-        <f aca="false">B10+B8</f>
-        <v>24094.5593298415</v>
+        <f aca="false">B10+B6*B8</f>
+        <v>52678.9785274456</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="6" t="n">
-        <f aca="false">B11/B5/2</f>
-        <v>0.00620931703990464</v>
+        <f aca="false">B11/B4/2</f>
+        <v>0.00564611651840989</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="7" t="n">
         <f aca="false">B12*365</f>
-        <v>2.26640071956519</v>
+        <v>2.06083252921961</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" s="8" t="n">
         <v>0.001</v>
@@ -444,14 +459,14 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B15" s="9" t="n">
         <f aca="false">B11*B14</f>
-        <v>24.0945593298415</v>
+        <v>52.6789785274456</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -465,7 +480,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -481,25 +496,25 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>237667</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B22" s="0" t="n">
         <f aca="false">B21/B20</f>
         <v>0.440291221667485</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -516,7 +531,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="0" t="n">
-        <f aca="false">16500*B23*B20/(B20+2*B4+B34)</f>
+        <f aca="false">16500*B23*B20/(B20+2*B4+B36)</f>
         <v>855.374145021292</v>
       </c>
       <c r="C24" s="0" t="s">
@@ -537,51 +552,57 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="5" t="n">
-        <f aca="false">16500*B25/(B25+B9+B40)</f>
-        <v>4369.5652173913</v>
+        <f aca="false">0.003*B25*1000000</f>
+        <v>8040</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B27" s="0" t="n">
-        <f aca="false">B24+B26</f>
-        <v>5224.9393624126</v>
+        <f aca="false">B26+B6*B24</f>
+        <v>10096.688287406</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="6" t="n">
         <f aca="false">B27/B20*B6/2</f>
-        <v>0.0116368318105428</v>
+        <v>0.0224870482305023</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="7" t="n">
         <f aca="false">B28*365</f>
-        <v>4.24744361084814</v>
+        <v>8.20777260413333</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B30" s="8" t="n">
         <v>0.001</v>
@@ -589,107 +610,84 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B31" s="9" t="n">
         <f aca="false">B27*B30</f>
-        <v>5.2249393624126</v>
+        <v>10.096688287406</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="9"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="2" t="n">
         <v>542619</v>
       </c>
-      <c r="C34" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="2" t="n">
-        <v>683.362648</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="5" t="n">
-        <f aca="false">B34/B35</f>
-        <v>794.042521329026</v>
-      </c>
-      <c r="C36" s="10"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="5" t="n">
-        <f aca="false">B36*B22</f>
-        <v>349.609951771887</v>
+      <c r="B37" s="2" t="n">
+        <v>683.362648</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="5" t="n">
+        <f aca="false">B36/B37</f>
+        <v>794.042521329026</v>
+      </c>
+      <c r="C38" s="10"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="5" t="n">
+        <f aca="false">B38*B22</f>
+        <v>349.609951771887</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="2" t="n">
+      <c r="B40" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C38" s="10"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <f aca="false">16500*B38*B34/(B34+2*B4+B20)</f>
-        <v>859.849133832859</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="2" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>9</v>
-      </c>
+      <c r="C40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="5" t="n">
-        <f aca="false">16500*B40/(B40+B9+B25)</f>
-        <v>2820.65217391304</v>
+        <v>6</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <f aca="false">16500*B40*B36/(B36+2*B4+B20)</f>
+        <v>859.849133832859</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>3</v>
@@ -697,76 +695,110 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="5" t="n">
+        <f aca="false">0.003*B42*1000000</f>
+        <v>5190</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="0" t="n">
-        <f aca="false">B39+B41</f>
-        <v>3680.5013077459</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="6" t="n">
-        <f aca="false">B42/B34*B25/2</f>
-        <v>0.00908901411926141</v>
-      </c>
-      <c r="C43" s="0" t="s">
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="7" t="n">
-        <f aca="false">B43*365</f>
-        <v>3.31749015353042</v>
+      <c r="B44" s="0" t="n">
+        <f aca="false">B43+B6*B41</f>
+        <v>7257.4480901527</v>
       </c>
       <c r="C44" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="6" t="n">
+        <f aca="false">B44/B36*B25/2</f>
+        <v>0.0179222998840892</v>
+      </c>
+      <c r="C45" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="8" t="n">
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="7" t="n">
+        <f aca="false">B45*365</f>
+        <v>6.54163945769257</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="8" t="n">
         <v>0.001</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="9" t="n">
-        <f aca="false">B42*B45</f>
-        <v>3.6805013077459</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" s="11" t="n">
-        <f aca="false">B15+B31+B46</f>
-        <v>33</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B51" s="12" t="n">
-        <f aca="false">B50*B6*B22</f>
-        <v>34.9354484577577</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="9" t="n">
+        <f aca="false">B44*B47</f>
+        <v>7.2574480901527</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="11" t="n">
+        <f aca="false">B15+B31+B48</f>
+        <v>70.0331149050043</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="12" t="n">
+        <f aca="false">B52*B22</f>
+        <v>30.8349657187037</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -802,17 +834,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I4" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -820,13 +852,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>1.29</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G7" s="14" t="n">
         <f aca="false">Calculator!B6/Equations!B7</f>
@@ -836,7 +868,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J7" s="14" t="n">
         <f aca="false">Calculator!B6*Equations!B7</f>
@@ -848,36 +880,36 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B8" s="6" t="n">
         <f aca="false">2*SQRT(B7)/(1+B7)-1</f>
         <v>-0.00805094396501782</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G8" s="14" t="n">
         <f aca="false">Calculator!B22/Equations!B7</f>
         <v>0.341311024548438</v>
       </c>
       <c r="H8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>30</v>
       </c>
       <c r="J8" s="14" t="n">
         <f aca="false">Calculator!B22*Equations!B7</f>
         <v>0.567975675951055</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
